--- a/Output/Relatorio-Erros-DE4 56232.xlsx
+++ b/Output/Relatorio-Erros-DE4 56232.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787C78E5-2DCC-427E-8BC2-D724B9001796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AFF558-73C6-43DB-9C98-210CFBEDF770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C8AE3B4-3D8C-4E07-BB99-D0C8AD3E5C79}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-DE4 56232.xlsx
+++ b/Output/Relatorio-Erros-DE4 56232.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05FF460-EEEC-494B-8D31-8269759B2E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F53B4C6-C543-4974-B8FA-16F37F17316D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{845A1AD0-35F0-4B16-83FC-133DD9EFEEF7}"/>
   </bookViews>
